--- a/Text/Saathoff_Katharina_Text.xlsx
+++ b/Text/Saathoff_Katharina_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katharinasaathoff/Documents/__HSH/_7_Semester/Interaktive_Medien/4_Daten_Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4449336-2FB0-0847-BA2A-BD3C57E97A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBFD9B6-ADAF-1340-9CC2-6219DB8136B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1640" windowWidth="21640" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,15 +55,9 @@
     <t>Adaption</t>
   </si>
   <si>
-    <t>Umgebung_mit_Technik</t>
-  </si>
-  <si>
     <t>Aufenthaltsraum</t>
   </si>
   <si>
-    <t>Zentrum_Raumschiff</t>
-  </si>
-  <si>
     <t>Sessel</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>vast, barren, and futuristic landscapes, surreal landscapes that feel both inviting and ominous, deep, dark, and vivid colors</t>
+  </si>
+  <si>
+    <t>Technische_Bauten</t>
+  </si>
+  <si>
+    <t>Zentrum_vom_Raumschiff</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -805,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -823,11 +823,11 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -839,11 +839,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -855,11 +855,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -871,11 +871,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -887,11 +887,11 @@
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -903,11 +903,11 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -919,11 +919,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -935,11 +935,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -951,11 +951,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -967,11 +967,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -983,11 +983,11 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -999,11 +999,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -1015,11 +1015,11 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -1031,11 +1031,11 @@
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1047,11 +1047,11 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1063,11 +1063,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1079,11 +1079,11 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1095,11 +1095,11 @@
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1111,11 +1111,11 @@
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -1127,10 +1127,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,10 +1169,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,10 +1183,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1197,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1211,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
